--- a/classes.xlsx
+++ b/classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\courses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F956C92-3511-43DD-B5B8-03166F003649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA8C08A-122C-45A9-8F0D-DD7553346EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,19 +20,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Course</t>
   </si>
   <si>
-    <t>Numerical Analysis and Scientific Computing</t>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>Sondheim's Musicals and the Making of America</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>Gaming Blackness: The Anthropology of Video Games and Race</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>Princeton Atelier: How to Write a Musical</t>
+  </si>
+  <si>
+    <t>DAN</t>
+  </si>
+  <si>
+    <t>Introduction to Dance Across Cultures</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>Machine Learning and Pattern Recognition</t>
+  </si>
+  <si>
+    <t>ECO</t>
+  </si>
+  <si>
+    <t>Microeconomic Theory: A Mathematical Approach</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>Nice People</t>
+  </si>
+  <si>
+    <t>Asian Mothers</t>
+  </si>
+  <si>
+    <t>Forms of Literature: American Short Stories</t>
+  </si>
+  <si>
+    <t>HUM</t>
+  </si>
+  <si>
+    <t>Historical Structures: Ancient Architecture</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>Music Theory through Performance and Composition</t>
+  </si>
+  <si>
+    <t>ORF</t>
+  </si>
+  <si>
+    <t>Regression and Applied Time Series</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,11 +113,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -60,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,61 +147,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,123 +471,146 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>437</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>498</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>215</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>435</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>310</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>218</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>291</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>401</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>417</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>405</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
